--- a/proyecto.xlsx
+++ b/proyecto.xlsx
@@ -2,19 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejandro\Desktop\Ciclo_II\Probabilidad y estadistica\Evaluaciones\proyecto-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usurio\OneDrive\Documentos\GitHub\proyecto-proba-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670EEA7D-F8D1-4532-9F48-30F1AB24831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B63018-E5C7-47D6-80FC-AF4115F4A4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{01F136A8-DE75-4685-AD48-C2E81161EE1D}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{01F136A8-DE75-4685-AD48-C2E81161EE1D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ejercicio 2" sheetId="1" r:id="rId1"/>
-    <sheet name="Ejercicio 3" sheetId="2" r:id="rId2"/>
+    <sheet name="Portada" sheetId="3" r:id="rId1"/>
+    <sheet name="Ejercicio 1" sheetId="5" r:id="rId2"/>
+    <sheet name="Ejercicio 2" sheetId="1" r:id="rId3"/>
+    <sheet name="Ejercicio 3" sheetId="2" r:id="rId4"/>
+    <sheet name="Ejercicio 4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>2) Si se toman como referencia las familias que viven en casas prestadas, determine e interprete un
 intervalo de confianza para el promedio de los gastos de alimentación. Utilice un nivel de confianza
@@ -131,6 +134,74 @@
     <t>La proporcion de las familias cuya jefa de hogar es mujer esta entre
 0,2651 y 0,5997.</t>
   </si>
+  <si>
+    <t>Universidad Nacional de Costa Rica.</t>
+  </si>
+  <si>
+    <t>Sede:</t>
+  </si>
+  <si>
+    <t>Pérez Zeledón.</t>
+  </si>
+  <si>
+    <t>Curso:</t>
+  </si>
+  <si>
+    <t>Probabilidad y Estadística.</t>
+  </si>
+  <si>
+    <t>Evaluación:</t>
+  </si>
+  <si>
+    <t>Estudiantes:</t>
+  </si>
+  <si>
+    <t>Emmanuel Vargas Gamboa.</t>
+  </si>
+  <si>
+    <t>Danier Azofeifa Aguilar.</t>
+  </si>
+  <si>
+    <t>Alejandro Navarro Bonilla.</t>
+  </si>
+  <si>
+    <t>Docente:</t>
+  </si>
+  <si>
+    <t>Fabián J. Hernández Vargas.</t>
+  </si>
+  <si>
+    <t>II Ciclo.</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>2021.</t>
+  </si>
+  <si>
+    <t>Proyecto III.</t>
+  </si>
+  <si>
+    <t>1) Determine e interprete intervalos de confianza del 92% para:
+a) La estimación del ingreso promedio mensual que ha tenido la familia en los últimos seis meses.
+b) La estimación de los gastos mensuales en alimentación que ha tenido el núcleo familiar en los últimos seis meses.</t>
+  </si>
+  <si>
+    <t>4) Con un nivel de significancia del 5%, realice e interprete las pruebas estadísticas necesarias para verificar si se cuenta con la suficiente información estadística para asegurar que:</t>
+  </si>
+  <si>
+    <t>a) Los gastos mensuales en transporte que realizan las familias son inferiores a 50000 colones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b) El promedio de miembros del grupo familiar en los hogares es de 4 personas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c) El promedio de ingreso mensual es igual en las familias cuyo jefe de hogar es un hombre y en las que cuyo jefe de hogar es una mujer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">d) La proporción de familias que tienen a lo sumo dos integrantes menores de edad es mayor que la proporción de familias que tienen más de dos integrantes menores de edad. </t>
+  </si>
 </sst>
 </file>
 
@@ -138,7 +209,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -182,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -286,15 +357,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -323,19 +471,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -343,12 +482,6 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -366,17 +499,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -393,8 +520,122 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,16 +656,65 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="image1.png" descr="Imagen que contiene Icono&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071870B3-44D5-4BC1-AB11-D773FFE295D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="28575"/>
+          <a:ext cx="2524125" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>351692</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>158261</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="872355" cy="350737"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -466,6 +756,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -589,7 +880,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -709,14 +1000,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>652096</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>212481</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="872355" cy="350737"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -758,6 +1049,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -880,7 +1172,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -999,14 +1291,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>21981</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2271519" cy="275588"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3">
@@ -1133,7 +1425,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3">
@@ -1212,14 +1504,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>21981</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>153865</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2271519" cy="275588"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -1346,7 +1638,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -1425,14 +1717,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>725366</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>183173</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="872355" cy="350737"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CuadroTexto 5">
@@ -1474,6 +1766,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1596,7 +1889,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CuadroTexto 5">
@@ -1716,18 +2009,18 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>344366</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>234462</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="667170" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CuadroTexto 5">
@@ -1886,7 +2179,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CuadroTexto 5">
@@ -1957,14 +2250,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>51288</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>43961</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="667170" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 6">
@@ -2123,7 +2416,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 6">
@@ -2194,14 +2487,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>146539</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>21980</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1955985" cy="375809"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CuadroTexto 8">
@@ -2323,7 +2616,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CuadroTexto 8">
@@ -2398,14 +2691,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>131885</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="496098" cy="180434"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9">
@@ -2447,6 +2740,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2471,7 +2765,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9">
@@ -2533,14 +2827,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>80595</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>51289</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="667170" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CuadroTexto 10">
@@ -2699,7 +2993,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CuadroTexto 10">
@@ -2770,14 +3064,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>175846</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>29308</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1950919" cy="375809"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 11">
@@ -2899,7 +3193,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 11">
@@ -2974,14 +3268,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>161192</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>43963</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="496098" cy="180434"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="CuadroTexto 12">
@@ -3023,6 +3317,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3047,7 +3342,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="CuadroTexto 12">
@@ -3109,14 +3404,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>344366</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>234462</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="667170" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="CuadroTexto 13">
@@ -3275,7 +3570,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="CuadroTexto 13">
@@ -3346,14 +3641,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>51288</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>43961</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="667170" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CuadroTexto 14">
@@ -3512,7 +3807,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CuadroTexto 14">
@@ -3583,14 +3878,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>146539</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>21980</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2045432" cy="375809"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="CuadroTexto 15">
@@ -3712,7 +4007,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="CuadroTexto 15">
@@ -3787,14 +4082,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>131885</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="496098" cy="180434"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CuadroTexto 16">
@@ -3836,6 +4131,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3860,7 +4156,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CuadroTexto 16">
@@ -3922,14 +4218,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>80595</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>51289</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="667170" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CuadroTexto 17">
@@ -4088,7 +4384,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CuadroTexto 17">
@@ -4159,14 +4455,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>161192</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>43963</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="424540" cy="180434"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="CuadroTexto 19">
@@ -4230,7 +4526,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="CuadroTexto 19">
@@ -4295,14 +4591,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>139211</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>7326</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2045432" cy="375809"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="CuadroTexto 20">
@@ -4424,7 +4720,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="CuadroTexto 20">
@@ -4796,737 +5092,578 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155BE0F1-9AA0-4FA9-85E3-398FF14208D6}">
-  <dimension ref="A1:Q38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E43F4F-BD99-47C0-9329-344448373DFA}">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="B1:H56"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="E6:L18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="15">
-        <f>AVERAGE(Q29:Q38)</f>
-        <v>156.5</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="16">
-        <f>_xlfn.STDEV.S(Q29:Q38)</f>
-        <v>53.543855337885823</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="14">
-        <f>COUNT(Q29:Q38)</f>
-        <v>10</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="14">
-        <f>B10-1</f>
-        <v>9</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="14">
-        <f>COUNT(P2:P38)</f>
+    <row r="1" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+    </row>
+    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+    </row>
+    <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+    </row>
+    <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+    </row>
+    <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="16">
-        <f>_xlfn.T.INV(97.5/100,B11)</f>
-        <v>2.2621571627982049</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P25" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P26" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P27" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P28" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P29" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q29" s="8">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P30" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q30" s="8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P31" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q31" s="8">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P32" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="8">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P33" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="8">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P34" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q34" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P35" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="8">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P36" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q36" s="8">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P37" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q37" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P38" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="8">
-        <v>180</v>
-      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+    </row>
+    <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+    </row>
+    <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+    </row>
+    <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+    </row>
+    <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+    </row>
+    <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+    </row>
+    <row r="29" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+    </row>
+    <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P2:Q38">
-    <sortCondition ref="P2:P38"/>
-  </sortState>
-  <mergeCells count="9">
-    <mergeCell ref="E16:L18"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H12"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L12"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
+  <mergeCells count="24">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B1:E7"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5535,1374 +5672,2296 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9440D0D4-DEC2-4616-B622-E89710F3C3A0}">
-  <dimension ref="A1:R82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7913C6-A878-4FE6-A102-D1EA4172F80D}">
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="B2:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155BE0F1-9AA0-4FA9-85E3-398FF14208D6}">
+  <sheetPr codeName="Hoja3"/>
+  <dimension ref="B2:R39"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="5">
+        <v>1</v>
+      </c>
+      <c r="R3" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="5">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="5">
+        <v>1</v>
+      </c>
+      <c r="R5" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="5">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="5">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="5">
+        <v>1</v>
+      </c>
+      <c r="R8" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11">
+        <f>AVERAGE(R30:R39)</f>
+        <v>156.5</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="5">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="12">
+        <f>_xlfn.STDEV.S(R30:R39)</f>
+        <v>53.543855337885823</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="5">
+        <v>1</v>
+      </c>
+      <c r="R10" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10">
+        <f>COUNT(R30:R39)</f>
+        <v>10</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="5">
+        <v>1</v>
+      </c>
+      <c r="R11" s="5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10">
+        <f>C11-1</f>
+        <v>9</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="5">
+        <v>1</v>
+      </c>
+      <c r="R12" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10">
+        <f>COUNT(Q3:Q39)</f>
+        <v>37</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="6">
+        <v>1</v>
+      </c>
+      <c r="R13" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="6">
+        <v>1</v>
+      </c>
+      <c r="R14" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="12">
+        <f>_xlfn.T.INV(97.5/100,C12)</f>
+        <v>2.2621571627982049</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="6">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="29"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="6">
+        <v>1</v>
+      </c>
+      <c r="R16" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="6">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="6">
+        <v>1</v>
+      </c>
+      <c r="R18" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="6">
+        <v>1</v>
+      </c>
+      <c r="R19" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="6">
+        <v>1</v>
+      </c>
+      <c r="R20" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="5">
+        <v>2</v>
+      </c>
+      <c r="R21" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="5">
+        <v>2</v>
+      </c>
+      <c r="R22" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="5">
+        <v>2</v>
+      </c>
+      <c r="R23" s="5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="5">
+        <v>2</v>
+      </c>
+      <c r="R24" s="5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="5">
+        <v>2</v>
+      </c>
+      <c r="R25" s="5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q26" s="5">
+        <v>2</v>
+      </c>
+      <c r="R26" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q27" s="5">
+        <v>2</v>
+      </c>
+      <c r="R27" s="5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q28" s="6">
+        <v>2</v>
+      </c>
+      <c r="R28" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q29" s="6">
+        <v>2</v>
+      </c>
+      <c r="R29" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q30" s="7">
+        <v>3</v>
+      </c>
+      <c r="R30" s="7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q31" s="7">
+        <v>3</v>
+      </c>
+      <c r="R31" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q32" s="7">
+        <v>3</v>
+      </c>
+      <c r="R32" s="7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="17:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q33" s="7">
+        <v>3</v>
+      </c>
+      <c r="R33" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="17:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q34" s="7">
+        <v>3</v>
+      </c>
+      <c r="R34" s="7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="17:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q35" s="7">
+        <v>3</v>
+      </c>
+      <c r="R35" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="17:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q36" s="7">
+        <v>3</v>
+      </c>
+      <c r="R36" s="7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="17:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q37" s="7">
+        <v>3</v>
+      </c>
+      <c r="R37" s="7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="17:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q38" s="7">
+        <v>3</v>
+      </c>
+      <c r="R38" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="17:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q39" s="7">
+        <v>3</v>
+      </c>
+      <c r="R39" s="7">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q3:R39">
+    <sortCondition ref="Q3:Q39"/>
+  </sortState>
+  <mergeCells count="9">
+    <mergeCell ref="B2:J4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F17:M19"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I13"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9440D0D4-DEC2-4616-B622-E89710F3C3A0}">
+  <sheetPr codeName="Hoja4"/>
+  <dimension ref="B2:S83"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-    </row>
-    <row r="5" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+    </row>
+    <row r="3" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-    </row>
-    <row r="6" spans="1:18" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+    </row>
+    <row r="7" spans="2:19" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="N7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="O7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="22" t="s">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10">
-        <f>COUNT(Q26:Q38)</f>
+      <c r="C8" s="29"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9">
+        <f>COUNT(R27:R39)</f>
         <v>13</v>
       </c>
-      <c r="M7" s="10">
-        <f>COUNT(Q39:Q43)</f>
+      <c r="N8" s="9">
+        <f>COUNT(R40:R44)</f>
         <v>5</v>
       </c>
-      <c r="N7" s="10">
-        <f>COUNT(Q7:Q43)</f>
+      <c r="O8" s="9">
+        <f>COUNT(R8:R44)</f>
         <v>37</v>
       </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="21">
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="15">
         <v>1</v>
       </c>
-      <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="1:18" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="21">
+      <c r="S8" s="9"/>
+    </row>
+    <row r="9" spans="2:19" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="15">
         <v>1</v>
       </c>
-      <c r="R8" s="10"/>
-    </row>
-    <row r="9" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="16">
+      <c r="C10" s="12">
         <f>13/37+5/37</f>
         <v>0.48648648648648651</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="12" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="12" t="s">
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="21">
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="15">
         <v>2</v>
       </c>
-      <c r="R9" s="10"/>
-    </row>
-    <row r="10" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="S10" s="9"/>
+    </row>
+    <row r="11" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="16">
-        <f>1-B9</f>
+      <c r="C11" s="12">
+        <f>1-C10</f>
         <v>0.51351351351351349</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="21">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="15">
         <v>2</v>
       </c>
-      <c r="R10" s="10"/>
-    </row>
-    <row r="11" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="S11" s="9"/>
+    </row>
+    <row r="12" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="14">
+      <c r="C12" s="10">
         <v>37</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="21">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="15">
         <v>2</v>
       </c>
-      <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="S12" s="9"/>
+    </row>
+    <row r="13" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="17">
+      <c r="C13" s="13">
         <v>0.96</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="21">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="15">
         <v>2</v>
       </c>
-      <c r="R12" s="10"/>
-    </row>
-    <row r="13" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="S13" s="9"/>
+    </row>
+    <row r="14" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="16">
+      <c r="C14" s="12">
         <f>NORMSINV(2/100)</f>
         <v>-2.0537489106318225</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="3">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="2">
         <v>2</v>
       </c>
-      <c r="R13" s="10"/>
-    </row>
-    <row r="14" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16">
+      <c r="S14" s="9"/>
+    </row>
+    <row r="15" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="12">
         <f>NORMSINV(98/100)</f>
         <v>2.0537489106318221</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="3">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="2">
         <v>2</v>
       </c>
-      <c r="R14" s="10"/>
-    </row>
-    <row r="15" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="3">
+      <c r="S15" s="9"/>
+    </row>
+    <row r="16" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="2">
         <v>2</v>
       </c>
-      <c r="R15" s="10"/>
-    </row>
-    <row r="16" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="21">
+      <c r="S16" s="9"/>
+    </row>
+    <row r="17" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="15">
         <v>3</v>
       </c>
-      <c r="R16" s="10"/>
-    </row>
-    <row r="17" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="26" t="s">
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="21">
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="15">
         <v>3</v>
       </c>
-      <c r="R17" s="10"/>
-    </row>
-    <row r="18" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="21">
+      <c r="S18" s="9"/>
+    </row>
+    <row r="19" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="15">
         <v>3</v>
       </c>
-      <c r="R18" s="10"/>
-    </row>
-    <row r="19" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="21">
+      <c r="S19" s="9"/>
+    </row>
+    <row r="20" spans="2:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="15">
         <v>3</v>
       </c>
-      <c r="R19" s="10"/>
-    </row>
-    <row r="20" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="21">
+      <c r="S20" s="9"/>
+    </row>
+    <row r="21" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="15">
         <v>3</v>
       </c>
-      <c r="R20" s="10"/>
-    </row>
-    <row r="21" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="21">
+      <c r="S21" s="9"/>
+    </row>
+    <row r="22" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="15">
         <v>3</v>
       </c>
-      <c r="R21" s="10"/>
-    </row>
-    <row r="22" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="21">
+      <c r="S22" s="9"/>
+    </row>
+    <row r="23" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="15">
         <v>3</v>
       </c>
-      <c r="R22" s="10"/>
-    </row>
-    <row r="23" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="3">
+      <c r="S23" s="9"/>
+    </row>
+    <row r="24" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="2">
         <v>3</v>
       </c>
-      <c r="R23" s="10"/>
-    </row>
-    <row r="24" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="3">
+      <c r="S24" s="9"/>
+    </row>
+    <row r="25" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="2">
         <v>3</v>
       </c>
-      <c r="R24" s="10"/>
-    </row>
-    <row r="25" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="3">
+      <c r="S25" s="9"/>
+    </row>
+    <row r="26" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="2">
         <v>3</v>
       </c>
-      <c r="R25" s="10"/>
-    </row>
-    <row r="26" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="21">
+      <c r="S26" s="9"/>
+    </row>
+    <row r="27" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="15">
         <v>4</v>
       </c>
-      <c r="R26" s="10"/>
-    </row>
-    <row r="27" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q27" s="21">
+      <c r="S27" s="9"/>
+    </row>
+    <row r="28" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R28" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q28" s="21">
+    <row r="29" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R29" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q29" s="21">
+    <row r="30" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R30" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q30" s="23">
+    <row r="31" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R31" s="17">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q31" s="24">
+    <row r="32" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R32" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q32" s="4">
+    <row r="33" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R33" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q33" s="4">
+    <row r="34" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R34" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q34" s="25">
+    <row r="35" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R35" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q35" s="25">
+    <row r="36" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R36" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q36" s="25">
+    <row r="37" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R37" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q37" s="25">
+    <row r="38" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R38" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q38" s="25">
+    <row r="39" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R39" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q39" s="4">
+    <row r="40" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R40" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q40" s="4">
+    <row r="41" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R41" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q41" s="4">
+    <row r="42" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R42" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q42" s="4">
+    <row r="43" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R43" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q43" s="25">
+    <row r="44" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R44" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="36" t="s">
+    <row r="45" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-    </row>
-    <row r="45" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="32" t="s">
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+    </row>
+    <row r="46" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="R45" s="10"/>
-    </row>
-    <row r="46" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10" t="s">
+      <c r="S46" s="9"/>
+    </row>
+    <row r="47" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M46" s="10" t="s">
+      <c r="N47" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="N46" s="10" t="s">
+      <c r="O47" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="31">
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="23">
         <v>1</v>
       </c>
-      <c r="R46" s="10"/>
-    </row>
-    <row r="47" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10">
-        <f>+COUNT(Q46:Q66)</f>
+      <c r="S47" s="9"/>
+    </row>
+    <row r="48" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9">
+        <f>+COUNT(R47:R67)</f>
         <v>21</v>
       </c>
-      <c r="M47" s="10">
-        <f>COUNT(Q67:Q82)</f>
+      <c r="N48" s="9">
+        <f>COUNT(R68:R83)</f>
         <v>16</v>
       </c>
-      <c r="N47" s="10">
-        <f>L47+M47</f>
+      <c r="O48" s="9">
+        <f>M48+N48</f>
         <v>37</v>
       </c>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="31">
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="23">
         <v>1</v>
       </c>
-      <c r="R47" s="10"/>
-    </row>
-    <row r="48" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
+      <c r="S48" s="9"/>
+    </row>
+    <row r="49" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="31">
+      <c r="C49" s="31"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="23">
         <v>1</v>
       </c>
-      <c r="R48" s="10"/>
-    </row>
-    <row r="49" spans="1:18" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="31">
+      <c r="S49" s="9"/>
+    </row>
+    <row r="50" spans="2:19" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="23">
         <v>1</v>
       </c>
-      <c r="R49" s="10"/>
-    </row>
-    <row r="50" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
+      <c r="S50" s="9"/>
+    </row>
+    <row r="51" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="16">
-        <f>M47/N47</f>
+      <c r="C51" s="12">
+        <f>N48/O48</f>
         <v>0.43243243243243246</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="12" t="s">
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="12" t="s">
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="31">
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="23">
         <v>1</v>
       </c>
-      <c r="R50" s="10"/>
-    </row>
-    <row r="51" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+      <c r="S51" s="9"/>
+    </row>
+    <row r="52" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="16">
-        <f>1-B50</f>
+      <c r="C52" s="12">
+        <f>1-C51</f>
         <v>0.56756756756756754</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="31">
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="23">
         <v>1</v>
       </c>
-      <c r="R51" s="10"/>
-    </row>
-    <row r="52" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+      <c r="S52" s="9"/>
+    </row>
+    <row r="53" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="14">
+      <c r="C53" s="10">
         <v>37</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="31">
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="23">
         <v>1</v>
       </c>
-      <c r="R52" s="10"/>
-    </row>
-    <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
+      <c r="S53" s="9"/>
+    </row>
+    <row r="54" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="17">
+      <c r="C54" s="13">
         <v>0.96</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="31">
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="23">
         <v>1</v>
       </c>
-      <c r="R53" s="10"/>
-    </row>
-    <row r="54" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
+      <c r="S54" s="9"/>
+    </row>
+    <row r="55" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="16">
+      <c r="C55" s="12">
         <f>NORMSINV(2/100)</f>
         <v>-2.0537489106318225</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="31">
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="23">
         <v>1</v>
       </c>
-      <c r="R54" s="10"/>
-    </row>
-    <row r="55" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16">
+      <c r="S55" s="9"/>
+    </row>
+    <row r="56" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="10"/>
+      <c r="C56" s="12">
         <f>NORMSINV(98/100)</f>
         <v>2.0537489106318221</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="31">
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="23">
         <v>1</v>
       </c>
-      <c r="R55" s="10"/>
-    </row>
-    <row r="56" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="31">
+      <c r="S56" s="9"/>
+    </row>
+    <row r="57" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="23">
         <v>1</v>
       </c>
-      <c r="R56" s="10"/>
-    </row>
-    <row r="57" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="31">
+      <c r="S57" s="9"/>
+    </row>
+    <row r="58" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="23">
         <v>1</v>
       </c>
-      <c r="R57" s="10"/>
-    </row>
-    <row r="58" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="26" t="s">
+      <c r="S58" s="9"/>
+    </row>
+    <row r="59" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="3">
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="2">
         <v>1</v>
       </c>
-      <c r="R58" s="10"/>
-    </row>
-    <row r="59" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="3">
+      <c r="S59" s="9"/>
+    </row>
+    <row r="60" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="2">
         <v>1</v>
       </c>
-      <c r="R59" s="10"/>
-    </row>
-    <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="3">
+      <c r="S60" s="9"/>
+    </row>
+    <row r="61" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="2">
         <v>1</v>
       </c>
-      <c r="R60" s="10"/>
-    </row>
-    <row r="61" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="3">
+      <c r="S61" s="9"/>
+    </row>
+    <row r="62" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="2">
         <v>1</v>
       </c>
-      <c r="R61" s="10"/>
-    </row>
-    <row r="62" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="3">
+      <c r="S62" s="9"/>
+    </row>
+    <row r="63" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="2">
         <v>1</v>
       </c>
-      <c r="R62" s="10"/>
-    </row>
-    <row r="63" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="3">
+      <c r="S63" s="9"/>
+    </row>
+    <row r="64" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="2">
         <v>1</v>
       </c>
-      <c r="R63" s="10"/>
-    </row>
-    <row r="64" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="3">
+      <c r="S64" s="9"/>
+    </row>
+    <row r="65" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="2">
         <v>1</v>
       </c>
-      <c r="R64" s="10"/>
-    </row>
-    <row r="65" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="3">
+      <c r="S65" s="9"/>
+    </row>
+    <row r="66" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="2">
         <v>1</v>
       </c>
-      <c r="R65" s="10"/>
-    </row>
-    <row r="66" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="3">
+      <c r="S66" s="9"/>
+    </row>
+    <row r="67" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="2">
         <v>1</v>
       </c>
-      <c r="R66" s="10"/>
-    </row>
-    <row r="67" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q67" s="31">
+      <c r="S67" s="9"/>
+    </row>
+    <row r="68" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R68" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q68" s="31">
+    <row r="69" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R69" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q69" s="33">
+    <row r="70" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R70" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q70" s="34">
+    <row r="71" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R71" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q71" s="4">
+    <row r="72" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R72" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q72" s="4">
+    <row r="73" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R73" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q73" s="4">
+    <row r="74" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R74" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q74" s="4">
+    <row r="75" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R75" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q75" s="4">
+    <row r="76" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R76" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q76" s="4">
+    <row r="77" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R77" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q77" s="4">
+    <row r="78" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R78" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q78" s="4">
+    <row r="79" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R79" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q79" s="4">
+    <row r="80" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R80" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q80" s="35">
+    <row r="81" spans="18:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R81" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="17:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q81" s="35">
+    <row r="82" spans="18:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R82" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="17:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q82" s="35">
+    <row r="83" spans="18:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R83" s="27">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q46:Q82">
-    <sortCondition ref="Q46:Q82"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R47:R83">
+    <sortCondition ref="R47:R83"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="G51:I56"/>
-    <mergeCell ref="K51:M56"/>
-    <mergeCell ref="G58:M61"/>
-    <mergeCell ref="G17:M20"/>
-    <mergeCell ref="A44:R44"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="G10:I15"/>
-    <mergeCell ref="K10:M15"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B2:I4"/>
+    <mergeCell ref="B6:S6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H18:N21"/>
+    <mergeCell ref="B45:S45"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="H11:J16"/>
+    <mergeCell ref="L11:N16"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="H52:J57"/>
+    <mergeCell ref="L52:N57"/>
+    <mergeCell ref="H59:N62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7550CB25-4C8B-46F1-A25F-93E2B01B7114}">
+  <dimension ref="B2:O6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="46"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="46"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B3:O3"/>
+    <mergeCell ref="B4:O4"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:O6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/proyecto.xlsx
+++ b/proyecto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usurio\OneDrive\Documentos\GitHub\proyecto-proba-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B63018-E5C7-47D6-80FC-AF4115F4A4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A4C27E-F835-4E08-9906-ADF57101E06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{01F136A8-DE75-4685-AD48-C2E81161EE1D}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{01F136A8-DE75-4685-AD48-C2E81161EE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>2) Si se toman como referencia las familias que viven en casas prestadas, determine e interprete un
 intervalo de confianza para el promedio de los gastos de alimentación. Utilice un nivel de confianza
@@ -197,10 +197,7 @@
     <t xml:space="preserve">b) El promedio de miembros del grupo familiar en los hogares es de 4 personas. </t>
   </si>
   <si>
-    <t xml:space="preserve">c) El promedio de ingreso mensual es igual en las familias cuyo jefe de hogar es un hombre y en las que cuyo jefe de hogar es una mujer. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">d) La proporción de familias que tienen a lo sumo dos integrantes menores de edad es mayor que la proporción de familias que tienen más de dos integrantes menores de edad. </t>
+    <t xml:space="preserve">c) El promedio de ingreso mensual es igual en las familias cuyo jefe de hogar es un hombre es igual a 550000 colones. </t>
   </si>
 </sst>
 </file>
@@ -211,7 +208,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +228,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -520,71 +525,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -636,6 +590,57 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5096,566 +5101,550 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
     </row>
     <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
     </row>
     <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
     </row>
     <row r="29" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
     </row>
     <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B1:E7"/>
@@ -5664,6 +5653,22 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5683,54 +5688,54 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="58"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5752,17 +5757,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="8"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
@@ -5777,15 +5782,15 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
@@ -5800,15 +5805,15 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -5869,24 +5874,24 @@
       </c>
     </row>
     <row r="7" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -5898,18 +5903,18 @@
       </c>
     </row>
     <row r="8" spans="2:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -5931,13 +5936,13 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
@@ -5959,13 +5964,13 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
@@ -5987,13 +5992,13 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
@@ -6015,13 +6020,13 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
@@ -6043,13 +6048,13 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
@@ -6088,7 +6093,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="50" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="12">
@@ -6116,7 +6121,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="14"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -6143,16 +6148,16 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
@@ -6168,14 +6173,14 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
@@ -6191,14 +6196,14 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
@@ -6485,23 +6490,23 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="B2:S83"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -6514,14 +6519,14 @@
       <c r="S2" s="9"/>
     </row>
     <row r="3" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -6534,14 +6539,14 @@
       <c r="S3" s="9"/>
     </row>
     <row r="4" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -6574,26 +6579,26 @@
       <c r="S5" s="9"/>
     </row>
     <row r="6" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
     </row>
     <row r="7" spans="2:19" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
@@ -6624,10 +6629,10 @@
       <c r="S7" s="9"/>
     </row>
     <row r="8" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -6657,8 +6662,8 @@
       <c r="S8" s="9"/>
     </row>
     <row r="9" spans="2:19" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -6690,17 +6695,17 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
@@ -6721,13 +6726,13 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -6747,13 +6752,13 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
@@ -6773,13 +6778,13 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
@@ -6800,13 +6805,13 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
@@ -6825,13 +6830,13 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
@@ -6847,13 +6852,13 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -6891,15 +6896,15 @@
       <c r="E18" s="9"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="9"/>
@@ -6915,13 +6920,13 @@
       <c r="E19" s="9"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="9"/>
@@ -6937,13 +6942,13 @@
       <c r="E20" s="9"/>
       <c r="F20" s="21"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="9"/>
@@ -6959,13 +6964,13 @@
       <c r="E21" s="9"/>
       <c r="F21" s="21"/>
       <c r="G21" s="20"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="9"/>
@@ -7192,26 +7197,26 @@
       </c>
     </row>
     <row r="45" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
-      <c r="S45" s="34"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="57"/>
     </row>
     <row r="46" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="9"/>
@@ -7295,10 +7300,10 @@
       <c r="S48" s="9"/>
     </row>
     <row r="49" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="31"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -7319,8 +7324,8 @@
       <c r="S49" s="9"/>
     </row>
     <row r="50" spans="2:19" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -7352,17 +7357,17 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="30" t="s">
+      <c r="H51" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
       <c r="K51" s="8"/>
-      <c r="L51" s="30" t="s">
+      <c r="L51" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
@@ -7383,13 +7388,13 @@
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
       <c r="K52" s="9"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="53"/>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
@@ -7409,13 +7414,13 @@
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
       <c r="K53" s="9"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="53"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
@@ -7435,13 +7440,13 @@
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
       <c r="K54" s="9"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="31"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="53"/>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
@@ -7462,13 +7467,13 @@
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
       <c r="K55" s="9"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="31"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
@@ -7487,13 +7492,13 @@
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
       <c r="K56" s="9"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
@@ -7509,13 +7514,13 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
       <c r="K57" s="9"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="53"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
@@ -7553,15 +7558,15 @@
       <c r="E59" s="9"/>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
-      <c r="H59" s="32" t="s">
+      <c r="H59" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="56"/>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
@@ -7577,13 +7582,13 @@
       <c r="E60" s="9"/>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="56"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="56"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
@@ -7599,13 +7604,13 @@
       <c r="E61" s="9"/>
       <c r="F61" s="21"/>
       <c r="G61" s="20"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="56"/>
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
@@ -7621,13 +7626,13 @@
       <c r="E62" s="9"/>
       <c r="F62" s="21"/>
       <c r="G62" s="20"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="56"/>
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
@@ -7831,11 +7836,11 @@
     <sortCondition ref="R47:R83"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="B2:I4"/>
-    <mergeCell ref="B6:S6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="H18:N21"/>
-    <mergeCell ref="B45:S45"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="H52:J57"/>
+    <mergeCell ref="L52:N57"/>
+    <mergeCell ref="H59:N62"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B9:C9"/>
@@ -7843,11 +7848,11 @@
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="H11:J16"/>
     <mergeCell ref="L11:N16"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="H52:J57"/>
-    <mergeCell ref="L52:N57"/>
-    <mergeCell ref="H59:N62"/>
+    <mergeCell ref="B2:I4"/>
+    <mergeCell ref="B6:S6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H18:N21"/>
+    <mergeCell ref="B45:S45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7856,112 +7861,97 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7550CB25-4C8B-46F1-A25F-93E2B01B7114}">
-  <dimension ref="B2:O6"/>
+  <dimension ref="B2:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="27.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
+    </row>
+    <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="66"/>
+    </row>
+    <row r="4" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="46"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="66"/>
+    </row>
+    <row r="5" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="49"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:O3"/>
     <mergeCell ref="B4:O4"/>
     <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>